--- a/checkrevenues.xlsx
+++ b/checkrevenues.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,52 +405,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>643</v>
+        <v>766</v>
       </c>
       <c r="B2">
-        <v>4.290136422221211</v>
+        <v>3.286586172949567</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.95443683593292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1329</v>
+        <v>1008</v>
       </c>
       <c r="B3">
-        <v>4.144450595875407</v>
+        <v>3.26835245789648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.45886329518979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>143</v>
+        <v>1093</v>
       </c>
       <c r="B4">
-        <v>3.665827625329725</v>
+        <v>3.266397185914605</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.2153165740742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1496</v>
+        <v>1007</v>
       </c>
       <c r="B5">
-        <v>3.592315486609291</v>
+        <v>3.113846709731122</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1408</v>
+        <v>1440</v>
       </c>
       <c r="B6">
-        <v>3.56881728409645</v>
+        <v>3.051301154367046</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>43</v>
+        <v>1229</v>
       </c>
       <c r="B7">
-        <v>3.461274550292378</v>
+        <v>3.050666412717226</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -489,38 +489,38 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1175</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>3.434661644431381</v>
+        <v>3.046696019157205</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.77402245593751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>372</v>
+        <v>878</v>
       </c>
       <c r="B9">
-        <v>3.432138698430996</v>
+        <v>3.045355664018523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.41774186509995</v>
+        <v>10.70743814532747</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>34</v>
+        <v>1480</v>
       </c>
       <c r="B10">
-        <v>3.405843493285524</v>
+        <v>3.043509416825029</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1571</v>
+        <v>154</v>
       </c>
       <c r="B11">
-        <v>3.400247611908505</v>
+        <v>3.043337323986364</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1282</v>
+        <v>1435</v>
       </c>
       <c r="B12">
-        <v>3.397662801618909</v>
+        <v>3.040369984955452</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>614</v>
+        <v>1073</v>
       </c>
       <c r="B13">
-        <v>3.354440020769658</v>
+        <v>2.993176699425759</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -573,24 +573,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>766</v>
+        <v>1569</v>
       </c>
       <c r="B14">
-        <v>3.286586172949567</v>
+        <v>2.980432553116095</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>11.05610965176208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1415</v>
+        <v>1226</v>
       </c>
       <c r="B15">
-        <v>3.270212500711036</v>
+        <v>2.798989182889781</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1008</v>
+        <v>389</v>
       </c>
       <c r="B16">
-        <v>3.26835245789648</v>
+        <v>2.579869071950017</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4.954117228201584</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="B17">
-        <v>3.266397185914605</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.083896280489533</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>890</v>
+        <v>145</v>
       </c>
       <c r="B18">
-        <v>3.248994701753943</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5.069480557373945</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>872</v>
+        <v>587</v>
       </c>
       <c r="B19">
-        <v>3.246159514023419</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5.03357347844141</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1473</v>
+        <v>851</v>
       </c>
       <c r="B20">
-        <v>3.245013663783483</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.878484776152434</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1042</v>
+        <v>1487</v>
       </c>
       <c r="B21">
-        <v>3.242227944100267</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4.864772847414068</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="B22">
-        <v>3.235901124313445</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4.833080678814946</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>673</v>
+        <v>535</v>
       </c>
       <c r="B23">
-        <v>3.234185283434178</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4.821776497937236</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1040</v>
+        <v>340</v>
       </c>
       <c r="B24">
-        <v>3.221824451735245</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4.818942910292415</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1264</v>
+        <v>104</v>
       </c>
       <c r="B25">
-        <v>3.212673096998505</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.662943831600023</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -741,27 +741,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>477</v>
+        <v>886</v>
       </c>
       <c r="B26">
-        <v>3.204380569369378</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4.519551040805647</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>13.52039900303272</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1111</v>
+        <v>592</v>
       </c>
       <c r="B27">
-        <v>3.200879911464253</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4.496897410823667</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1033</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>3.190299493961979</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4.494481530172193</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1158</v>
+        <v>541</v>
       </c>
       <c r="B29">
-        <v>3.190149925013626</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4.494384726459262</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1469</v>
+        <v>701</v>
       </c>
       <c r="B30">
-        <v>3.184749227936957</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4.486715804352084</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>767</v>
+        <v>1331</v>
       </c>
       <c r="B31">
-        <v>3.17998735880921</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4.486113122823072</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>27</v>
+        <v>870</v>
       </c>
       <c r="B32">
-        <v>3.177270209711531</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4.486071800888204</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>993</v>
+        <v>1380</v>
       </c>
       <c r="B33">
-        <v>3.173099880969318</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4.47472428033336</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="B34">
-        <v>3.169508264606378</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4.459081680184702</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1220</v>
+        <v>1241</v>
       </c>
       <c r="B35">
-        <v>3.15873591051327</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4.451809283133094</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>86</v>
+        <v>1227</v>
       </c>
       <c r="B36">
-        <v>3.154788513984895</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4.451450680951634</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>604</v>
+        <v>1354</v>
       </c>
       <c r="B37">
-        <v>3.146827879594368</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.451009987561082</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1055</v>
+        <v>1280</v>
       </c>
       <c r="B38">
-        <v>3.142854354021333</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>4.450444766081271</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="B39">
-        <v>3.131818438251116</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4.449883453255512</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -937,27 +937,27 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>732</v>
+        <v>331</v>
       </c>
       <c r="B40">
-        <v>3.130649990213872</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>4.440961085680205</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>10.66427777676849</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1135</v>
+        <v>1222</v>
       </c>
       <c r="B41">
-        <v>3.130325634781856</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4.437888488830675</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -965,27 +965,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>83</v>
+        <v>931</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5.150000388103571</v>
+        <v>4.433599402511964</v>
       </c>
       <c r="D42">
-        <v>12.92570549861437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1413</v>
+        <v>1129</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5.087236470286568</v>
+        <v>4.42488880868709</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1076</v>
+        <v>1419</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.083896280489533</v>
+        <v>4.424585361180632</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>601</v>
+        <v>1588</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5.074415804175602</v>
+        <v>4.422880684587318</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>145</v>
+        <v>1047</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5.069480557373945</v>
+        <v>4.415307034159912</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1035,41 +1035,41 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>587</v>
+        <v>978</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>5.03357347844141</v>
+        <v>4.381465756096736</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>10.50695258336057</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>938</v>
+        <v>516</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5.000517317159092</v>
+        <v>4.376102365890469</v>
       </c>
       <c r="D48">
-        <v>11.01926507977533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>4.954117228201584</v>
+        <v>4.354995566329106</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>924</v>
+        <v>411</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>4.935058820316113</v>
+        <v>4.308555897117612</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>420</v>
+        <v>1365</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4.921248517272653</v>
+        <v>4.271479199903851</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>851</v>
+        <v>760</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4.878484776152434</v>
+        <v>4.230901877110963</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4.873120132909859</v>
+        <v>4.189189243852901</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1487</v>
+        <v>633</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4.864772847414068</v>
+        <v>4.000732641605872</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1147,27 +1147,27 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4.833080678814946</v>
+        <v>3.958073133457978</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>11.10511973700603</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>535</v>
+        <v>197</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4.821776497937236</v>
+        <v>3.915590222202741</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>4.818942910292415</v>
+        <v>3.905889925873699</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1522</v>
+        <v>1410</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>4.802243132055693</v>
+        <v>3.885337029718573</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1203,329 +1203,329 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>963</v>
+        <v>1373</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4.801340671918497</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>12.46036269993587</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1170</v>
+        <v>1455</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4.741387450662478</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>11.39728958830168</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>104</v>
+        <v>1491</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>4.662943831600023</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>11.32498205761578</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1549</v>
+        <v>1530</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4.656232625653354</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>11.50376818203848</v>
+        <v>11.2599864489833</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1178</v>
+        <v>785</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>4.643958060675185</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>11.12049064688272</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4.617709053095462</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>11.06294903517576</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>734</v>
+        <v>1493</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4.600967730981066</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>11.03554379036948</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>385</v>
+        <v>1341</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4.600302332106295</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>10.92836923098197</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>694</v>
+        <v>1443</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>4.560916712612487</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10.89584265682742</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1367</v>
+        <v>1597</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4.550652241516529</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>10.88435578075787</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>873</v>
+        <v>996</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>4.539850093414399</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>11.81850135301678</v>
+        <v>10.87988288720972</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>886</v>
+        <v>394</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>4.519551040805647</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>13.52039900303272</v>
+        <v>10.83366735365128</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>592</v>
+        <v>697</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>4.496897410823667</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>10.80081316645587</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>84</v>
+        <v>1458</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4.494481530172193</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>10.79020948965349</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1199</v>
+        <v>756</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>4.494441609411723</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10.78658390703249</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>541</v>
+        <v>1071</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>4.494384726459262</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10.78532654824282</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>613</v>
+        <v>1119</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4.49412211598709</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>10.78259979282121</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>741</v>
+        <v>1082</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4.494058758611696</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>10.75267555334879</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>103</v>
+        <v>496</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>4.493911023954317</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>10.75153306352156</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1500</v>
+        <v>311</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>4.493838489860189</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>10.74110662696034</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>4.493557607198667</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>10.735247462141</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>644</v>
+        <v>1343</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>4.493506793236405</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>10.72927313055043</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>966</v>
+        <v>485</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>4.49197160211444</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>10.72583313455443</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1041</v>
+        <v>562</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1534,12 +1534,12 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>14.93394010266239</v>
+        <v>10.72519554840063</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1548,12 +1548,12 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>14.10832135718405</v>
+        <v>10.71742306290625</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>775</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>14.10832135718405</v>
+        <v>10.7045069653958</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1000</v>
+        <v>1031</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1576,12 +1576,12 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>12.74932409384171</v>
+        <v>10.70385560997255</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1373</v>
+        <v>710</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1590,12 +1590,12 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>12.46036269993587</v>
+        <v>10.70085337112996</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1151</v>
+        <v>668</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1604,12 +1604,12 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>12.22037402819308</v>
+        <v>10.69749749949552</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>455</v>
+        <v>731</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1618,12 +1618,12 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>12.10754152018545</v>
+        <v>10.69692299367422</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1632,12 +1632,12 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>11.90224076289468</v>
+        <v>10.69368550093271</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1538</v>
+        <v>1240</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1646,12 +1646,12 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>11.90065154150608</v>
+        <v>10.69084491069779</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1584</v>
+        <v>1360</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1660,12 +1660,12 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>11.59792949816738</v>
+        <v>10.68989296824389</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>33</v>
+        <v>1448</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1674,12 +1674,12 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>11.45740817425048</v>
+        <v>10.68911499438977</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1590</v>
+        <v>61</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1688,12 +1688,12 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>11.43317409538736</v>
+        <v>10.67695489838343</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>914</v>
+        <v>1096</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1702,12 +1702,12 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>11.41837973709361</v>
+        <v>10.67642607872835</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1455</v>
+        <v>224</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1716,12 +1716,12 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>11.39728958830168</v>
+        <v>10.67541009776231</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1491</v>
+        <v>852</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1730,12 +1730,12 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>11.32498205761578</v>
+        <v>10.67370021077731</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1342</v>
+        <v>261</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1744,12 +1744,12 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>11.28241643495558</v>
+        <v>10.67368158638209</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1530</v>
+        <v>293</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1758,12 +1758,12 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>11.2599864489833</v>
+        <v>10.67260388650413</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1772,12 +1772,12 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>11.18929219779131</v>
+        <v>10.67180424454858</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1246</v>
+        <v>1123</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1786,12 +1786,12 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>11.17516507610295</v>
+        <v>10.67087638953944</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>408</v>
+        <v>595</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1800,12 +1800,12 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>11.12414194119819</v>
+        <v>10.6696345628166</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1814,12 +1814,12 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>11.12049064688272</v>
+        <v>10.66877857941756</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1347</v>
+        <v>1586</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1828,12 +1828,12 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>11.11698324996622</v>
+        <v>10.66730219776743</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1842,12 +1842,12 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>11.10511973700603</v>
+        <v>10.66668220756542</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>1293</v>
+        <v>1321</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1856,12 +1856,12 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>11.09707546488474</v>
+        <v>10.6661888252064</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1870,12 +1870,12 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>11.06294903517576</v>
+        <v>10.66581167782925</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>1569</v>
+        <v>528</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1884,12 +1884,12 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>11.05610965176208</v>
+        <v>10.66477861447747</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>1025</v>
+        <v>454</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1898,12 +1898,12 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>11.04471201241837</v>
+        <v>10.66469876842163</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>1493</v>
+        <v>474</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>11.03554379036948</v>
+        <v>10.66373540817444</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>846</v>
+        <v>975</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1926,12 +1926,12 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>11.01660092691832</v>
+        <v>10.66102013913009</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1940,7 +1940,105 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>11.01541286472616</v>
+        <v>10.65944620532457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1474</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>10.65598336534368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>164</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>10.63250446400662</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>153</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>10.62717640709061</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>524</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>10.62367191793152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1543</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>10.54038388200178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1192</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>10.42102871664716</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1385</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>10.41227865787534</v>
       </c>
     </row>
   </sheetData>
